--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-710335.1259745475</v>
+        <v>-712039.4781112598</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.2317037368595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>21.22239583651806</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>73.52271850695197</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.728574888177634</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>5.987350060858576</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -996,7 +996,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>25.17354161800006</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>70.44444787377903</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13.63001379239696</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372057</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>100.3723803890889</v>
+        <v>307.4471771988052</v>
       </c>
       <c r="D11" t="n">
         <v>334.2632661944081</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>307.33248304386</v>
       </c>
       <c r="W11" t="n">
-        <v>328.8211932911381</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
         <v>365.8181632297787</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.82858495660291</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>18.99729914886087</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>231.7178678975531</v>
@@ -1591,7 +1591,7 @@
         <v>266.1032229103161</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>205.2898799627622</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>362.3140662372057</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>344.8531163447327</v>
       </c>
       <c r="D14" t="n">
         <v>334.2632661944081</v>
@@ -1616,16 +1616,16 @@
         <v>361.5105946459869</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154365</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437242</v>
+        <v>91.80205764507498</v>
       </c>
       <c r="H14" t="n">
         <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302584</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>192.3312167192736</v>
       </c>
       <c r="U14" t="n">
-        <v>4.028848609332403</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V14" t="n">
         <v>307.33248304386</v>
@@ -1670,7 +1670,7 @@
         <v>328.8211932911381</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
         <v>365.8181632297787</v>
@@ -1704,7 +1704,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I15" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S15" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T15" t="n">
         <v>195.0682397085608</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244176</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
-        <v>170.2266384307346</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W16" t="n">
         <v>266.1032229103161</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.0436599535529</v>
       </c>
     </row>
     <row r="17">
@@ -1844,16 +1844,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C17" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E17" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F17" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G17" t="n">
         <v>331.1282792841545</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686442</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T17" t="n">
         <v>130.939722359704</v>
@@ -1904,10 +1904,10 @@
         <v>245.9409886842903</v>
       </c>
       <c r="W17" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X17" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y17" t="n">
         <v>304.426668870209</v>
@@ -1941,7 +1941,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I18" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S18" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T18" t="n">
         <v>195.0682397085608</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278326</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236775</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072457</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708664</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179395</v>
+        <v>85.11966459179398</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484792</v>
+        <v>70.99113916484795</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>26.68285778346463</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
@@ -2056,7 +2056,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V19" t="n">
         <v>170.3263735379834</v>
@@ -2065,7 +2065,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X19" t="n">
-        <v>87.98590646182961</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y19" t="n">
         <v>136.7733835662502</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
         <v>283.4616219851629</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686443</v>
+        <v>73.35764310686442</v>
       </c>
       <c r="T20" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U20" t="n">
         <v>169.345328046381</v>
@@ -2245,13 +2245,13 @@
         <v>66.80420323236775</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072457</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.237557606507366</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H22" t="n">
         <v>70.99113916484792</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462663</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7316352671971</v>
+        <v>42.86244290554841</v>
       </c>
       <c r="T22" t="n">
         <v>141.6050365425687</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686443</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T23" t="n">
         <v>130.9397223597039</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609267</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278323</v>
+        <v>85.4355513127832</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236775</v>
+        <v>66.80420323236773</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072457</v>
+        <v>64.62269286072454</v>
       </c>
       <c r="F25" t="n">
-        <v>63.60977823708664</v>
+        <v>63.60977823708662</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179393</v>
+        <v>85.11966459179391</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.99113916484789</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638378</v>
+        <v>41.76076153638375</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462663</v>
+        <v>47.8186445446266</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
       </c>
       <c r="T25" t="n">
-        <v>67.10429048504324</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U25" t="n">
         <v>204.4499389353288</v>
@@ -2536,7 +2536,7 @@
         <v>170.3263735379834</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7117285507464</v>
+        <v>59.2198433283732</v>
       </c>
       <c r="X25" t="n">
         <v>143.8983856031925</v>
@@ -2573,7 +2573,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T26" t="n">
         <v>130.9397223597039</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609268</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278322</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236774</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072456</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708663</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11966459179392</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H28" t="n">
-        <v>15.07866002348528</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.81864454462663</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
       </c>
       <c r="T28" t="n">
-        <v>141.6050365425687</v>
+        <v>81.54870263297823</v>
       </c>
       <c r="U28" t="n">
         <v>204.4499389353288</v>
@@ -2792,16 +2792,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C29" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E29" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F29" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G29" t="n">
         <v>331.1282792841545</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345614</v>
+        <v>37.55779725345622</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686447</v>
       </c>
       <c r="T29" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U29" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V29" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W29" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X29" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y29" t="n">
         <v>304.426668870209</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609268</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278322</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236774</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072456</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708663</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179393</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484791</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638376</v>
+        <v>41.76076153638384</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.05839458945114</v>
+        <v>47.81864454462668</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T31" t="n">
         <v>141.6050365425687</v>
       </c>
       <c r="U31" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V31" t="n">
-        <v>170.3263735379834</v>
+        <v>24.83448831560894</v>
       </c>
       <c r="W31" t="n">
         <v>204.7117285507464</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8983856031925</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y31" t="n">
         <v>136.7733835662502</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>294.8199291298099</v>
+        <v>297.0231760391552</v>
       </c>
       <c r="C32" t="n">
         <v>277.3589792373368</v>
@@ -3035,19 +3035,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F32" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G32" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H32" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376223</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903826</v>
       </c>
       <c r="T32" t="n">
-        <v>212.7509921455486</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U32" t="n">
-        <v>166.8684139822762</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
         <v>239.8383459364642</v>
       </c>
       <c r="W32" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X32" t="n">
         <v>281.8171881447983</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.3240261223829</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826656</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454162</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G34" t="n">
         <v>79.0170218439678</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702178</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855764</v>
+        <v>35.65811878855763</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680086</v>
+        <v>41.71600179680047</v>
       </c>
       <c r="S34" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T34" t="n">
         <v>135.5023937947425</v>
@@ -3244,16 +3244,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V34" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W34" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X34" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450562999</v>
+        <v>31.45515450563005</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903866</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T35" t="n">
         <v>124.8370796118779</v>
@@ -3363,7 +3363,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I36" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838226</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.65304841868482</v>
+        <v>21.65304841868483</v>
       </c>
       <c r="S36" t="n">
-        <v>148.1971745240615</v>
+        <v>148.1971745240616</v>
       </c>
       <c r="T36" t="n">
         <v>195.0682397085608</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.91806764826656</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454162</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702178</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855763</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S37" t="n">
         <v>117.628992519371</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563003</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.91806764826657</v>
+        <v>91.91806764826656</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495711</v>
+        <v>79.33290856495709</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454163</v>
+        <v>60.70156048454162</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289845</v>
+        <v>58.52005011289843</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926052</v>
+        <v>57.50713548926051</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396783</v>
+        <v>79.01702184396781</v>
       </c>
       <c r="H40" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702178</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855765</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3743,13 +3743,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D41" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E41" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F41" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G41" t="n">
         <v>325.0256365363284</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563005</v>
+        <v>31.45515450563006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>67.25500035903832</v>
@@ -3803,7 +3803,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X41" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y41" t="n">
         <v>298.3240261223829</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826659</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454164</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855769</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680052</v>
+        <v>41.71600179680053</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T43" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U43" t="n">
         <v>198.3472961875027</v>
@@ -3961,7 +3961,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X43" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y43" t="n">
         <v>130.6707408184241</v>
@@ -3980,13 +3980,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D44" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F44" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
         <v>325.0256365363284</v>
@@ -3995,7 +3995,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563006</v>
+        <v>31.45515450563005</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X44" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y44" t="n">
         <v>298.3240261223829</v>
@@ -4074,7 +4074,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I45" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838227</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868485</v>
       </c>
       <c r="S45" t="n">
         <v>148.1971745240616</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826657</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495711</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454163</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289845</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926052</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396783</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702183</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855768</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680053</v>
+        <v>41.71600179680051</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T46" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U46" t="n">
         <v>198.3472961875027</v>
@@ -4198,7 +4198,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X46" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
         <v>130.6707408184241</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.1327311248648</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>285.1327311248648</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>285.1327311248648</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>285.1327311248648</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>278.1872303756613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W2" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X2" t="n">
-        <v>601.5428246748836</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y2" t="n">
-        <v>528.5815077689649</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354.6558939327403</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C3" t="n">
-        <v>180.2028646516133</v>
+        <v>379.5660313827424</v>
       </c>
       <c r="D3" t="n">
-        <v>180.2028646516133</v>
+        <v>379.5660313827424</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>379.5660313827424</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>233.0314734096274</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>94.30064799224286</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>94.30064799224286</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,16 +4416,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W3" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X3" t="n">
-        <v>562.4161926976942</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y3" t="n">
-        <v>354.6558939327403</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="4">
@@ -4471,16 +4471,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>772.0302844130649</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>772.0302844130649</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>772.0302844130649</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>772.0302844130649</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>528.5815077689649</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510.6151429241127</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C6" t="n">
-        <v>510.6151429241127</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D6" t="n">
-        <v>361.6807332628614</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>361.6807332628614</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>518.4217842253022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>518.4217842253022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>518.4217842253022</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.3006591534979</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C9" t="n">
-        <v>305.3006591534979</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D9" t="n">
-        <v>305.3006591534979</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>892.9011475573241</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>892.9011475573241</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>892.9011475573241</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>664.6775292937132</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>664.6775292937132</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>664.6775292937132</v>
       </c>
       <c r="X9" t="n">
-        <v>473.515996173566</v>
+        <v>456.8260290881803</v>
       </c>
       <c r="Y9" t="n">
-        <v>473.515996173566</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="10">
@@ -4948,13 +4948,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
         <v>41.77557929797318</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2062.281029057485</v>
+        <v>2271.447490481441</v>
       </c>
       <c r="C11" t="n">
         <v>1960.894786240224</v>
@@ -5027,10 +5027,10 @@
         <v>1258.092906603461</v>
       </c>
       <c r="F11" t="n">
-        <v>867.7330375979701</v>
+        <v>867.7330375979699</v>
       </c>
       <c r="G11" t="n">
-        <v>471.2484177558244</v>
+        <v>471.2484177558242</v>
       </c>
       <c r="H11" t="n">
         <v>173.4170813661846</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3673.415097954388</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="T11" t="n">
-        <v>3673.415097954388</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="U11" t="n">
-        <v>3440.34760057464</v>
+        <v>3304.237360709555</v>
       </c>
       <c r="V11" t="n">
-        <v>3129.910749015185</v>
+        <v>2993.8005091501</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.768129529187</v>
+        <v>2993.8005091501</v>
       </c>
       <c r="X11" t="n">
-        <v>2797.768129529187</v>
+        <v>2640.960786673137</v>
       </c>
       <c r="Y11" t="n">
-        <v>2428.254833337491</v>
+        <v>2271.447490481441</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J12" t="n">
-        <v>190.9942848817977</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K12" t="n">
-        <v>333.1371951879715</v>
+        <v>139.1391845095014</v>
       </c>
       <c r="L12" t="n">
-        <v>834.8942840728514</v>
+        <v>640.8962733943813</v>
       </c>
       <c r="M12" t="n">
-        <v>1472.400362088867</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.937391818767</v>
+        <v>1948.488331740415</v>
       </c>
       <c r="O12" t="n">
-        <v>2214.519473647356</v>
+        <v>2495.070413569004</v>
       </c>
       <c r="P12" t="n">
         <v>2636.196714164933</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.7695187507206</v>
+        <v>478.2370330334265</v>
       </c>
       <c r="C13" t="n">
-        <v>221.4593716069298</v>
+        <v>478.2370330334265</v>
       </c>
       <c r="D13" t="n">
-        <v>221.4593716069298</v>
+        <v>348.7464294052069</v>
       </c>
       <c r="E13" t="n">
         <v>221.4593716069298</v>
@@ -5197,7 +5197,7 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814347</v>
+        <v>75.45401965814358</v>
       </c>
       <c r="K13" t="n">
         <v>195.5491741164734</v>
@@ -5206,43 +5206,43 @@
         <v>399.1026573432035</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459853</v>
+        <v>623.0114736459855</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327548</v>
+        <v>847.511536432755</v>
       </c>
       <c r="O13" t="n">
-        <v>1040.400604995801</v>
+        <v>1040.400604995802</v>
       </c>
       <c r="P13" t="n">
         <v>1184.847502163548</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.639325881398</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="R13" t="n">
-        <v>1141.145805723213</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S13" t="n">
-        <v>1141.145805723213</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="T13" t="n">
-        <v>1141.145805723213</v>
+        <v>1188.450134821943</v>
       </c>
       <c r="U13" t="n">
-        <v>872.619105425336</v>
+        <v>1188.450134821943</v>
       </c>
       <c r="V13" t="n">
-        <v>638.5606530035652</v>
+        <v>954.3916824001724</v>
       </c>
       <c r="W13" t="n">
-        <v>369.7695187507206</v>
+        <v>685.6005481473278</v>
       </c>
       <c r="X13" t="n">
-        <v>369.7695187507206</v>
+        <v>478.2370330334265</v>
       </c>
       <c r="Y13" t="n">
-        <v>369.7695187507206</v>
+        <v>478.2370330334265</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1960.894786240224</v>
+        <v>1515.167350298427</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.894786240224</v>
+        <v>1166.830869142131</v>
       </c>
       <c r="D14" t="n">
-        <v>1623.255123417589</v>
+        <v>829.191206319497</v>
       </c>
       <c r="E14" t="n">
-        <v>1258.092906603461</v>
+        <v>464.0289895053689</v>
       </c>
       <c r="F14" t="n">
-        <v>867.7330375979698</v>
+        <v>464.0289895053689</v>
       </c>
       <c r="G14" t="n">
-        <v>471.2484177558242</v>
+        <v>371.2996383487275</v>
       </c>
       <c r="H14" t="n">
-        <v>173.4170813661844</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J14" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K14" t="n">
         <v>660.820817907538</v>
@@ -5285,16 +5285,16 @@
         <v>1210.096241442436</v>
       </c>
       <c r="M14" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P14" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
         <v>3673.415097954388</v>
@@ -5303,25 +5303,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089303</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807208</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="U14" t="n">
-        <v>3338.961357757377</v>
+        <v>3246.073644292544</v>
       </c>
       <c r="V14" t="n">
-        <v>3028.524506197923</v>
+        <v>2935.63679273309</v>
       </c>
       <c r="W14" t="n">
-        <v>2696.381886711925</v>
+        <v>2603.494173247092</v>
       </c>
       <c r="X14" t="n">
-        <v>2696.381886711925</v>
+        <v>2250.654450770128</v>
       </c>
       <c r="Y14" t="n">
-        <v>2326.868590520229</v>
+        <v>1881.141154578433</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J15" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K15" t="n">
-        <v>400.9597691519541</v>
+        <v>139.1391845095014</v>
       </c>
       <c r="L15" t="n">
-        <v>613.4168317267427</v>
+        <v>640.8962733943813</v>
       </c>
       <c r="M15" t="n">
-        <v>789.8748966302585</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N15" t="n">
-        <v>1459.960876960276</v>
+        <v>1948.488331740415</v>
       </c>
       <c r="O15" t="n">
-        <v>2006.542958788865</v>
+        <v>2495.070413569004</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.220199306442</v>
+        <v>2601.469513133043</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>311.3823316766342</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="C16" t="n">
-        <v>311.3823316766342</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="D16" t="n">
-        <v>311.3823316766342</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="E16" t="n">
-        <v>311.3823316766342</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="F16" t="n">
-        <v>311.3823316766342</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="G16" t="n">
-        <v>311.3823316766342</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="H16" t="n">
-        <v>177.6624998337882</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814357</v>
+        <v>75.45401965814358</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164733</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L16" t="n">
         <v>399.1026573432034</v>
@@ -5449,7 +5449,7 @@
         <v>847.5115364327548</v>
       </c>
       <c r="O16" t="n">
-        <v>1040.400604995801</v>
+        <v>1040.400604995802</v>
       </c>
       <c r="P16" t="n">
         <v>1184.847502163548</v>
@@ -5467,19 +5467,19 @@
         <v>1020.646265652341</v>
       </c>
       <c r="U16" t="n">
-        <v>752.1195653544632</v>
+        <v>752.1195653544636</v>
       </c>
       <c r="V16" t="n">
-        <v>580.1734659294788</v>
+        <v>518.0611129326928</v>
       </c>
       <c r="W16" t="n">
-        <v>311.3823316766342</v>
+        <v>249.2699786798483</v>
       </c>
       <c r="X16" t="n">
-        <v>311.3823316766342</v>
+        <v>249.2699786798483</v>
       </c>
       <c r="Y16" t="n">
-        <v>311.3823316766342</v>
+        <v>73.46830195908777</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147036</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096532</v>
       </c>
       <c r="E17" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053344</v>
+        <v>681.6982062053356</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274006</v>
+        <v>347.2251968274018</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J17" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075377</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
@@ -5531,7 +5531,7 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q17" t="n">
         <v>3673.415097954388</v>
@@ -5540,25 +5540,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S17" t="n">
-        <v>3599.316468553514</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T17" t="n">
-        <v>3467.054122735632</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820095</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.572994724852</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703066</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.11218796283</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1371951879716</v>
+        <v>139.1391845095014</v>
       </c>
       <c r="L18" t="n">
-        <v>834.8942840728514</v>
+        <v>640.8962733943813</v>
       </c>
       <c r="M18" t="n">
-        <v>1472.400362088867</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.937391818767</v>
+        <v>1775.239017913814</v>
       </c>
       <c r="O18" t="n">
-        <v>2214.519473647356</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P18" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.4612609485869</v>
+        <v>409.6823481344556</v>
       </c>
       <c r="C19" t="n">
-        <v>428.1627242690078</v>
+        <v>323.3838114548765</v>
       </c>
       <c r="D19" t="n">
-        <v>360.6837311049999</v>
+        <v>323.3838114548765</v>
       </c>
       <c r="E19" t="n">
-        <v>295.4082837709346</v>
+        <v>258.1083641208113</v>
       </c>
       <c r="F19" t="n">
-        <v>231.1559825213522</v>
+        <v>258.1083641208113</v>
       </c>
       <c r="G19" t="n">
-        <v>145.176523337722</v>
+        <v>172.128904937181</v>
       </c>
       <c r="H19" t="n">
-        <v>73.46830195908775</v>
+        <v>100.420683558547</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K19" t="n">
-        <v>317.104332948421</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911251</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M19" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512624</v>
@@ -5695,28 +5695,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R19" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S19" t="n">
-        <v>1568.878511444344</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T19" t="n">
-        <v>1425.843120997305</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U19" t="n">
-        <v>1219.32803116364</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V19" t="n">
-        <v>1047.281189206081</v>
+        <v>998.979528049892</v>
       </c>
       <c r="W19" t="n">
-        <v>840.5016654174478</v>
+        <v>792.2000042612592</v>
       </c>
       <c r="X19" t="n">
-        <v>751.6270124257009</v>
+        <v>646.8480996115698</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.4720795304987</v>
+        <v>508.6931667163674</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053345</v>
+        <v>681.6982062053353</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274006</v>
       </c>
       <c r="H20" t="n">
         <v>111.4054709019727</v>
@@ -5750,10 +5750,10 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J20" t="n">
-        <v>260.2054441404283</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K20" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L20" t="n">
         <v>1210.096241442436</v>
@@ -5777,25 +5777,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T20" t="n">
         <v>3467.054122735632</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820095</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724853</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703067</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.6823481344561</v>
+        <v>491.3684010250105</v>
       </c>
       <c r="C22" t="n">
-        <v>323.383811454877</v>
+        <v>405.0698643454314</v>
       </c>
       <c r="D22" t="n">
-        <v>255.9048182908692</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="E22" t="n">
-        <v>190.629370956804</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F22" t="n">
-        <v>187.3591107482107</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3591107482107</v>
+        <v>187.3591107482109</v>
       </c>
       <c r="H22" t="n">
         <v>115.6508893695764</v>
@@ -5908,16 +5908,16 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
@@ -5932,28 +5932,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.576850288156</v>
+        <v>1602.262903178711</v>
       </c>
       <c r="T22" t="n">
-        <v>1377.541459841117</v>
+        <v>1459.227512731671</v>
       </c>
       <c r="U22" t="n">
-        <v>1171.026370007452</v>
+        <v>1252.712422898006</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9795280498925</v>
+        <v>1080.665580940447</v>
       </c>
       <c r="W22" t="n">
-        <v>792.2000042612598</v>
+        <v>873.8860571518142</v>
       </c>
       <c r="X22" t="n">
-        <v>646.8480996115702</v>
+        <v>728.5341525021247</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.693166716368</v>
+        <v>590.3792196069223</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E23" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053345</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H23" t="n">
         <v>111.4054709019727</v>
@@ -5987,37 +5987,37 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J23" t="n">
-        <v>260.205444140428</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K23" t="n">
-        <v>660.8208179075375</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L23" t="n">
-        <v>1210.096241442435</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M23" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N23" t="n">
-        <v>2461.184977863253</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O23" t="n">
-        <v>3004.568888469953</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P23" t="n">
         <v>3430.660101634155</v>
       </c>
       <c r="Q23" t="n">
-        <v>3673.415097954387</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R23" t="n">
         <v>3673.415097954388</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T23" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U23" t="n">
         <v>3295.998235820096</v>
@@ -6075,13 +6075,13 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M24" t="n">
-        <v>1657.74891897556</v>
+        <v>1264.423847230377</v>
       </c>
       <c r="N24" t="n">
-        <v>1853.28594870546</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O24" t="n">
-        <v>2321.821099742403</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P24" t="n">
         <v>2428.220199306442</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>484.9356269804414</v>
+        <v>556.6438483590753</v>
       </c>
       <c r="C25" t="n">
-        <v>398.6370903008624</v>
+        <v>470.3453116794962</v>
       </c>
       <c r="D25" t="n">
-        <v>331.1580971368547</v>
+        <v>402.8663185154884</v>
       </c>
       <c r="E25" t="n">
-        <v>265.8826498027892</v>
+        <v>337.5908711814232</v>
       </c>
       <c r="F25" t="n">
-        <v>201.6303485532067</v>
+        <v>273.3385699318408</v>
       </c>
       <c r="G25" t="n">
-        <v>115.6508893695764</v>
+        <v>187.3591107482106</v>
       </c>
       <c r="H25" t="n">
         <v>115.6508893695764</v>
@@ -6145,13 +6145,13 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K25" t="n">
         <v>317.1043329484214</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M25" t="n">
         <v>866.1217913098812</v>
@@ -6169,28 +6169,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S25" t="n">
         <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1452.794738687102</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1246.279648853437</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V25" t="n">
-        <v>1074.232806895878</v>
+        <v>998.9795280498926</v>
       </c>
       <c r="W25" t="n">
-        <v>867.4532831072449</v>
+        <v>939.1615044858786</v>
       </c>
       <c r="X25" t="n">
-        <v>722.1013784575555</v>
+        <v>793.8095998361891</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.9464455623532</v>
+        <v>655.654666940987</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1875.149994147036</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C26" t="n">
         <v>1588.825123454953</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G26" t="n">
         <v>347.2251968274009</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J26" t="n">
-        <v>260.2054441404288</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075383</v>
+        <v>660.8208179075377</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M26" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N26" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O26" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P26" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634154</v>
       </c>
       <c r="Q26" t="n">
         <v>3673.415097954388</v>
@@ -6263,13 +6263,13 @@
         <v>3047.572994724853</v>
       </c>
       <c r="W26" t="n">
-        <v>2777.441985703066</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.11218796283</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J27" t="n">
-        <v>190.9942848817977</v>
+        <v>112.9473540901524</v>
       </c>
       <c r="K27" t="n">
-        <v>333.0218125333251</v>
+        <v>440.4388212830187</v>
       </c>
       <c r="L27" t="n">
-        <v>467.6469595677804</v>
+        <v>942.1959101678985</v>
       </c>
       <c r="M27" t="n">
-        <v>1105.153037583796</v>
+        <v>1579.701988183914</v>
       </c>
       <c r="N27" t="n">
         <v>1775.239017913814</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>457.9840092906447</v>
+        <v>470.3453116794964</v>
       </c>
       <c r="C28" t="n">
-        <v>371.6854726110657</v>
+        <v>470.3453116794964</v>
       </c>
       <c r="D28" t="n">
-        <v>304.2064794470579</v>
+        <v>402.8663185154886</v>
       </c>
       <c r="E28" t="n">
-        <v>238.9310321129926</v>
+        <v>337.5908711814234</v>
       </c>
       <c r="F28" t="n">
-        <v>174.67873086341</v>
+        <v>273.3385699318409</v>
       </c>
       <c r="G28" t="n">
-        <v>88.69927167977995</v>
+        <v>187.3591107482106</v>
       </c>
       <c r="H28" t="n">
-        <v>73.46830195908775</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I28" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
         <v>866.1217913098812</v>
@@ -6406,28 +6406,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R28" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S28" t="n">
-        <v>1568.878511444344</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T28" t="n">
-        <v>1425.843120997305</v>
+        <v>1438.204423386158</v>
       </c>
       <c r="U28" t="n">
-        <v>1219.32803116364</v>
+        <v>1231.689333552492</v>
       </c>
       <c r="V28" t="n">
-        <v>1047.281189206081</v>
+        <v>1059.642491594933</v>
       </c>
       <c r="W28" t="n">
-        <v>840.5016654174482</v>
+        <v>852.8629678063</v>
       </c>
       <c r="X28" t="n">
-        <v>695.1497607677588</v>
+        <v>707.5110631566106</v>
       </c>
       <c r="Y28" t="n">
-        <v>556.9948278725566</v>
+        <v>569.3561302614082</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.149994147036</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
         <v>1588.825123454953</v>
@@ -6449,13 +6449,13 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053341</v>
+        <v>681.6982062053338</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968273999</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I29" t="n">
         <v>73.46830195908775</v>
@@ -6488,7 +6488,7 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T29" t="n">
         <v>3467.054122735632</v>
@@ -6540,25 +6540,25 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J30" t="n">
-        <v>190.9942848817977</v>
+        <v>108.1955029909777</v>
       </c>
       <c r="K30" t="n">
-        <v>256.6651674322113</v>
+        <v>173.8663855413913</v>
       </c>
       <c r="L30" t="n">
-        <v>758.4222563170911</v>
+        <v>675.6234744262711</v>
       </c>
       <c r="M30" t="n">
-        <v>1395.928334333107</v>
+        <v>1313.129552442287</v>
       </c>
       <c r="N30" t="n">
-        <v>1775.239017913814</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O30" t="n">
-        <v>2321.821099742403</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.402498082636</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>556.6438483590752</v>
+        <v>556.6438483590759</v>
       </c>
       <c r="C31" t="n">
-        <v>470.3453116794961</v>
+        <v>470.3453116794969</v>
       </c>
       <c r="D31" t="n">
-        <v>402.8663185154883</v>
+        <v>402.866318515489</v>
       </c>
       <c r="E31" t="n">
-        <v>337.590871181423</v>
+        <v>337.5908711814237</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318405</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482103</v>
+        <v>187.3591107482109</v>
       </c>
       <c r="H31" t="n">
-        <v>115.6508893695761</v>
+        <v>115.6508893695766</v>
       </c>
       <c r="I31" t="n">
         <v>73.46830195908775</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911253</v>
       </c>
       <c r="M31" t="n">
-        <v>866.1217913098812</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O31" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P31" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q31" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R31" t="n">
-        <v>1667.538350512775</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S31" t="n">
-        <v>1667.538350512775</v>
+        <v>1520.576850288155</v>
       </c>
       <c r="T31" t="n">
-        <v>1524.502960065736</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U31" t="n">
-        <v>1317.98787023207</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V31" t="n">
         <v>1145.941028274512</v>
       </c>
       <c r="W31" t="n">
-        <v>939.1615044858788</v>
+        <v>939.1615044858795</v>
       </c>
       <c r="X31" t="n">
-        <v>793.8095998361894</v>
+        <v>793.8095998361899</v>
       </c>
       <c r="Y31" t="n">
-        <v>655.654666940987</v>
+        <v>655.6546669409878</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1551.839409831764</v>
       </c>
       <c r="D32" t="n">
-        <v>1282.375643077207</v>
+        <v>1282.375643077206</v>
       </c>
       <c r="E32" t="n">
         <v>985.389322331155</v>
@@ -6722,28 +6722,28 @@
         <v>3673.415097954388</v>
       </c>
       <c r="R32" t="n">
-        <v>3673.415097954388</v>
+        <v>3671.97824767724</v>
       </c>
       <c r="S32" t="n">
-        <v>3605.48075415738</v>
+        <v>3604.043903880232</v>
       </c>
       <c r="T32" t="n">
-        <v>3390.580762091169</v>
+        <v>3477.945843666214</v>
       </c>
       <c r="U32" t="n">
-        <v>3222.026808573718</v>
+        <v>3313.054242354542</v>
       </c>
       <c r="V32" t="n">
-        <v>2979.76585308234</v>
+        <v>3070.793286863164</v>
       </c>
       <c r="W32" t="n">
-        <v>2715.799129664419</v>
+        <v>2806.826563445243</v>
       </c>
       <c r="X32" t="n">
-        <v>2431.135303255532</v>
+        <v>2522.162737036356</v>
       </c>
       <c r="Y32" t="n">
-        <v>2129.797903131913</v>
+        <v>2132.023405060544</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6783,16 @@
         <v>518.4857520746641</v>
       </c>
       <c r="L33" t="n">
-        <v>653.1108991091194</v>
+        <v>857.5706556517425</v>
       </c>
       <c r="M33" t="n">
-        <v>1290.616977125135</v>
+        <v>1495.076733667758</v>
       </c>
       <c r="N33" t="n">
-        <v>1960.702957455153</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O33" t="n">
-        <v>2117.36134319978</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P33" t="n">
         <v>2428.220199306442</v>
@@ -6844,10 +6844,10 @@
         <v>312.933728765964</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202464</v>
+        <v>254.8457131202462</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404811</v>
+        <v>175.0305395404807</v>
       </c>
       <c r="H34" t="n">
         <v>109.4866037657116</v>
@@ -6856,10 +6856,10 @@
         <v>73.46830195908775</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944655</v>
+        <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891172</v>
+        <v>329.1875655891171</v>
       </c>
       <c r="L34" t="n">
         <v>599.560244552169</v>
@@ -6871,13 +6871,13 @@
         <v>1181.607515114364</v>
       </c>
       <c r="O34" t="n">
-        <v>1441.315779413733</v>
+        <v>1441.315779413732</v>
       </c>
       <c r="P34" t="n">
-        <v>1652.581872317801</v>
+        <v>1652.5818723178</v>
       </c>
       <c r="Q34" t="n">
-        <v>1742.192891771973</v>
+        <v>1742.192891771972</v>
       </c>
       <c r="R34" t="n">
         <v>1700.055516219649</v>
@@ -6895,7 +6895,7 @@
         <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472309</v>
+        <v>877.5186484472308</v>
       </c>
       <c r="X34" t="n">
         <v>738.3310294014061</v>
@@ -6926,19 +6926,19 @@
         <v>661.3183231884755</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144065</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3541590928432</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J35" t="n">
-        <v>258.3184179351636</v>
+        <v>165.8541338771928</v>
       </c>
       <c r="K35" t="n">
-        <v>658.9337917022732</v>
+        <v>566.4695076443023</v>
       </c>
       <c r="L35" t="n">
         <v>1115.7449311792</v>
@@ -6953,7 +6953,7 @@
         <v>2910.217578206718</v>
       </c>
       <c r="P35" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q35" t="n">
         <v>3579.063787691152</v>
@@ -7011,28 +7011,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J36" t="n">
         <v>189.107258676533</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693995</v>
+        <v>516.5987258693993</v>
       </c>
       <c r="L36" t="n">
-        <v>651.2238729038547</v>
+        <v>1018.355814754279</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.729950919871</v>
+        <v>1655.861892770295</v>
       </c>
       <c r="N36" t="n">
-        <v>1958.815931249889</v>
+        <v>1981.32850656704</v>
       </c>
       <c r="O36" t="n">
-        <v>2115.474316994515</v>
+        <v>2527.910588395629</v>
       </c>
       <c r="P36" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q36" t="n">
         <v>2655.515471877372</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267573</v>
+        <v>511.6068229267571</v>
       </c>
       <c r="C37" t="n">
-        <v>431.472571851043</v>
+        <v>431.4725718510429</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909</v>
+        <v>370.1578642908997</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606995</v>
+        <v>311.0467025606993</v>
       </c>
       <c r="F37" t="n">
         <v>252.9586869149818</v>
@@ -7087,16 +7087,16 @@
         <v>173.1435133352163</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5995775604469</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892004</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838526</v>
+        <v>327.300539383852</v>
       </c>
       <c r="L37" t="n">
         <v>597.6732183469044</v>
@@ -7117,13 +7117,13 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U37" t="n">
         <v>1242.129416780429</v>
@@ -7138,7 +7138,7 @@
         <v>736.4440031961417</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048043</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>661.3183231884755</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144065</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J38" t="n">
         <v>258.3184179351636</v>
@@ -7184,13 +7184,13 @@
         <v>1835.99050343639</v>
       </c>
       <c r="N38" t="n">
-        <v>2366.833667600018</v>
+        <v>2459.297951657989</v>
       </c>
       <c r="O38" t="n">
-        <v>2910.217578206718</v>
+        <v>3002.681862264689</v>
       </c>
       <c r="P38" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q38" t="n">
         <v>3579.063787691152</v>
@@ -7248,22 +7248,22 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J39" t="n">
         <v>189.107258676533</v>
       </c>
       <c r="K39" t="n">
-        <v>516.5987258693993</v>
+        <v>405.7803414584848</v>
       </c>
       <c r="L39" t="n">
-        <v>1018.355814754279</v>
+        <v>540.4054884929401</v>
       </c>
       <c r="M39" t="n">
-        <v>1262.536821025112</v>
+        <v>1177.911566508956</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.073850755012</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O39" t="n">
         <v>2004.655932583601</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267574</v>
+        <v>511.6068229267569</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510431</v>
+        <v>431.4725718510426</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642909001</v>
+        <v>370.1578642908996</v>
       </c>
       <c r="E40" t="n">
-        <v>311.0467025606996</v>
+        <v>311.0467025606991</v>
       </c>
       <c r="F40" t="n">
-        <v>252.9586869149819</v>
+        <v>252.9586869149815</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352164</v>
+        <v>173.143513335216</v>
       </c>
       <c r="H40" t="n">
-        <v>107.5995775604469</v>
+        <v>107.5995775604465</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J40" t="n">
         <v>140.3861891892007</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469042</v>
+        <v>597.6732183469045</v>
       </c>
       <c r="M40" t="n">
-        <v>888.4012303860079</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N40" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O40" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P40" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q40" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R40" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S40" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
         <v>1442.480221010229</v>
       </c>
       <c r="U40" t="n">
-        <v>1242.129416780429</v>
+        <v>1242.129416780428</v>
       </c>
       <c r="V40" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419666</v>
+        <v>875.6316222419659</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961419</v>
+        <v>736.4440031961412</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048044</v>
+        <v>604.4533559048039</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884756</v>
       </c>
       <c r="G41" t="n">
         <v>333.0095994144065</v>
@@ -7406,7 +7406,7 @@
         <v>103.3541590928433</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J41" t="n">
         <v>258.3184179351636</v>
@@ -7424,13 +7424,13 @@
         <v>2459.297951657989</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.217578206719</v>
+        <v>3002.681862264689</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R41" t="n">
         <v>3579.063787691152</v>
@@ -7448,7 +7448,7 @@
         <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X41" t="n">
         <v>2429.248277050267</v>
@@ -7485,28 +7485,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J42" t="n">
-        <v>189.107258676533</v>
+        <v>106.308476785713</v>
       </c>
       <c r="K42" t="n">
-        <v>516.5987258693995</v>
+        <v>171.9793593361266</v>
       </c>
       <c r="L42" t="n">
-        <v>1018.355814754279</v>
+        <v>673.7364482210064</v>
       </c>
       <c r="M42" t="n">
-        <v>1652.460517109074</v>
+        <v>1311.242526237022</v>
       </c>
       <c r="N42" t="n">
-        <v>1847.997546838974</v>
+        <v>1981.32850656704</v>
       </c>
       <c r="O42" t="n">
-        <v>2004.655932583601</v>
+        <v>2527.910588395629</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.606822926757</v>
+        <v>511.6068229267576</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510427</v>
+        <v>431.4725718510433</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642908996</v>
+        <v>370.1578642909002</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606991</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149815</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G43" t="n">
-        <v>173.143513335216</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5995775604465</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838522</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469042</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860077</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O43" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P43" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q43" t="n">
         <v>1740.305865566708</v>
       </c>
       <c r="R43" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S43" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T43" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U43" t="n">
-        <v>1242.129416780428</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419659</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961412</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048041</v>
+        <v>604.4533559048047</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1830.11296871472</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.952383626501</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258912</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884763</v>
+        <v>661.3183231884755</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144071</v>
+        <v>333.0095994144069</v>
       </c>
       <c r="H44" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J44" t="n">
         <v>258.3184179351636</v>
@@ -7652,46 +7652,46 @@
         <v>658.9337917022731</v>
       </c>
       <c r="L44" t="n">
-        <v>1115.744931179201</v>
+        <v>1208.209215237171</v>
       </c>
       <c r="M44" t="n">
-        <v>1743.52621937842</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N44" t="n">
-        <v>2366.833667600019</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206719</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S44" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T44" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W44" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J45" t="n">
-        <v>189.107258676533</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="K45" t="n">
-        <v>516.5987258693995</v>
+        <v>399.0727429466894</v>
       </c>
       <c r="L45" t="n">
-        <v>651.2238729038547</v>
+        <v>540.4054884929404</v>
       </c>
       <c r="M45" t="n">
-        <v>1288.729950919871</v>
+        <v>1177.911566508956</v>
       </c>
       <c r="N45" t="n">
-        <v>1958.815931249889</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O45" t="n">
-        <v>2115.474316994515</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P45" t="n">
         <v>2426.333173101178</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267572</v>
+        <v>511.6068229267567</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510429</v>
+        <v>431.4725718510425</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642908998</v>
+        <v>370.1578642908994</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606993</v>
+        <v>311.046702560699</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149816</v>
+        <v>252.9586869149813</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352161</v>
+        <v>173.1435133352158</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5995775604467</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J46" t="n">
-        <v>140.3861891892011</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838528</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469047</v>
+        <v>597.6732183469043</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860079</v>
       </c>
       <c r="N46" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O46" t="n">
-        <v>1439.428753208468</v>
+        <v>1439.428753208467</v>
       </c>
       <c r="P46" t="n">
         <v>1650.694846112536</v>
@@ -7828,7 +7828,7 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S46" t="n">
         <v>1579.351325853404</v>
@@ -7843,13 +7843,13 @@
         <v>1076.246860426734</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419664</v>
+        <v>875.6316222419662</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961417</v>
+        <v>736.4440031961415</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048042</v>
+        <v>604.4533559048037</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K12" t="n">
-        <v>77.24447248056583</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>35.07798084029275</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.798708171484</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.37792127706544</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>78.61809650538717</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>35.07798084029265</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.37792127706544</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K18" t="n">
-        <v>195.9575865439093</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>304.3430674479971</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.661214550451</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>68.4070114821383</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>315.0270356488049</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720743</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599057</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>47.25575171248425</v>
       </c>
       <c r="K27" t="n">
-        <v>77.12792434455943</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>42.45590211735827</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>185.629953384654</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>206.5250066087103</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>206.5250066087106</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844685079</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>324.2629478252272</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.2420041079245</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>206.5250066087106</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,13 +10832,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>343.9486576867614</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>228.4004414462596</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>152.5274749813518</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>68.4070114821383</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>287.401914537523</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>228.4004414462596</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>42.45590211735834</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>462.2693307588677</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>324.2629478252283</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>356.1152667676098</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065454</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.775352032117013</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>206.5250066087106</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.3140662372057</v>
       </c>
       <c r="C11" t="n">
-        <v>244.4807359556438</v>
+        <v>37.40593914592752</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>192.3312167192736</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X11" t="n">
-        <v>349.3113252521941</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>159.4122047556624</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919374</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202942</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>125.0012725966563</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.38155394759339</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
         <v>185.1231296267668</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021383</v>
+        <v>183.9992317532775</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627622</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>198.1648779258199</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447327</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>300.7177159986492</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>98.94929161302581</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.7079737966183</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>349.3113252521941</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>128.1956975919374</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202942</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F16" t="n">
         <v>125.0012725966563</v>
@@ -23668,10 +23668,10 @@
         <v>146.5111589513636</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.1522558959534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.49122946681846</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>205.2898799627622</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258199</v>
+        <v>24.12121797226698</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638378</v>
+        <v>15.07790375291917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462662</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>55.91247914136292</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F22" t="n">
-        <v>60.37222063057928</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179395</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.86919236164869</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484792</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>74.50074605752542</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>145.4918852223732</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>55.91247914136263</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638377</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462661</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>60.05633390959043</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.76024995517548</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7316352671971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>145.4918852223745</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1225723.811959463</v>
+        <v>1225723.811959462</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1225723.811959463</v>
+        <v>1225723.811959462</v>
       </c>
     </row>
     <row r="11">
@@ -26317,40 +26317,40 @@
         <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
         <v>212736.4752672469</v>
       </c>
       <c r="F2" t="n">
-        <v>212736.475267247</v>
+        <v>212736.4752672469</v>
       </c>
       <c r="G2" t="n">
         <v>245264.9893856834</v>
       </c>
       <c r="H2" t="n">
-        <v>245264.9893856838</v>
+        <v>245264.9893856834</v>
       </c>
       <c r="I2" t="n">
-        <v>245264.9893856838</v>
+        <v>245264.9893856834</v>
       </c>
       <c r="J2" t="n">
-        <v>245264.9893856834</v>
+        <v>245264.9893856835</v>
       </c>
       <c r="K2" t="n">
         <v>245264.9893856834</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592849</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592848</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765575</v>
+        <v>49113.19548765573</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012624</v>
+        <v>79395.76294012614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591664</v>
+        <v>53995.3096859167</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914784</v>
+        <v>162917.5281914783</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101994</v>
+        <v>16335.82034101987</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>61611.6429834147</v>
+        <v>61611.64298341468</v>
       </c>
       <c r="F4" t="n">
         <v>61611.6429834147</v>
@@ -26451,7 +26451,7 @@
         <v>128877.0901089102</v>
       </c>
       <c r="N4" t="n">
-        <v>128877.0901089102</v>
+        <v>128877.0901089103</v>
       </c>
       <c r="O4" t="n">
         <v>128877.0901089102</v>
@@ -26482,7 +26482,7 @@
         <v>70367.55973007937</v>
       </c>
       <c r="G5" t="n">
-        <v>75528.68126939403</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="H5" t="n">
         <v>75528.68126939403</v>
@@ -26500,16 +26500,16 @@
         <v>76041.72434256104</v>
       </c>
       <c r="M5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="N5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="P5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>-122931.6907948322</v>
       </c>
       <c r="D6" t="n">
-        <v>-122931.6907948323</v>
+        <v>-122931.6907948322</v>
       </c>
       <c r="E6" t="n">
-        <v>-610092.1474609222</v>
+        <v>-610371.9479250226</v>
       </c>
       <c r="F6" t="n">
-        <v>80757.2725537529</v>
+        <v>80477.47208965253</v>
       </c>
       <c r="G6" t="n">
-        <v>-3027.442454815289</v>
+        <v>-3036.171967928646</v>
       </c>
       <c r="H6" t="n">
-        <v>46085.75303284088</v>
+        <v>46077.02351972715</v>
       </c>
       <c r="I6" t="n">
-        <v>46085.7530328408</v>
+        <v>46077.02351972708</v>
       </c>
       <c r="J6" t="n">
-        <v>-33310.0099072858</v>
+        <v>-33318.7394203989</v>
       </c>
       <c r="K6" t="n">
-        <v>46085.75303284048</v>
+        <v>46077.02351972718</v>
       </c>
       <c r="L6" t="n">
-        <v>-9383.131745095554</v>
+        <v>-9383.131745095772</v>
       </c>
       <c r="M6" t="n">
-        <v>-120089.6717676637</v>
+        <v>-120089.6717676636</v>
       </c>
       <c r="N6" t="n">
-        <v>42827.8564238148</v>
+        <v>42827.85642381471</v>
       </c>
       <c r="O6" t="n">
-        <v>26492.03608279495</v>
+        <v>26492.03608279492</v>
       </c>
       <c r="P6" t="n">
-        <v>42827.85642381469</v>
+        <v>42827.85642381474</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="G2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H2" t="n">
         <v>81.8112697858446</v>
       </c>
       <c r="I2" t="n">
+        <v>81.81126978584463</v>
+      </c>
+      <c r="J2" t="n">
         <v>81.8112697858446</v>
       </c>
-      <c r="J2" t="n">
-        <v>81.81126978584462</v>
-      </c>
       <c r="K2" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L2" t="n">
+        <v>87.91391253367075</v>
+      </c>
+      <c r="M2" t="n">
+        <v>87.91391253367071</v>
+      </c>
+      <c r="N2" t="n">
         <v>87.91391253367074</v>
       </c>
-      <c r="M2" t="n">
-        <v>87.91391253367074</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>87.9139125336707</v>
+      </c>
+      <c r="P2" t="n">
         <v>87.91391253367073</v>
-      </c>
-      <c r="O2" t="n">
-        <v>87.91391253367071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="3">
@@ -26747,10 +26747,10 @@
         <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="G3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="H3" t="n">
         <v>587.8431257275768</v>
@@ -26768,7 +26768,7 @@
         <v>587.8431257275768</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8431257275769</v>
+        <v>587.8431257275768</v>
       </c>
       <c r="N3" t="n">
         <v>587.8431257275768</v>
@@ -26777,7 +26777,7 @@
         <v>587.8431257275768</v>
       </c>
       <c r="P3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275766</v>
       </c>
     </row>
     <row r="4">
@@ -26799,16 +26799,16 @@
         <v>918.3537744885971</v>
       </c>
       <c r="F4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="G4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="H4" t="n">
         <v>918.353774488597</v>
       </c>
       <c r="I4" t="n">
-        <v>918.3537744885969</v>
+        <v>918.353774488597</v>
       </c>
       <c r="J4" t="n">
         <v>918.353774488597</v>
@@ -26820,16 +26820,16 @@
         <v>918.353774488597</v>
       </c>
       <c r="M4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.765946922788</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.765946922788</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956968</v>
+        <v>61.39149435956966</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627493</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.4941371073958</v>
+        <v>67.49413710739587</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627484</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451291</v>
+        <v>653.751658045129</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956968</v>
+        <v>61.39149435956966</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627493</v>
+        <v>20.41977542627489</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,13 +27424,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>314.0062349191941</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>136.4226846188829</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>15.8739143444631</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>32.98924717753579</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.8046087616897</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>141.4577155037802</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27716,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27828,13 +27828,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>249.4166516030022</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,25 +27856,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.71338627886411</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>192.1429714110805</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627492</v>
+        <v>20.41977542627491</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="20">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584444</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C20" t="n">
         <v>81.8112697858446</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.422481774377123</v>
+        <v>1.422481774376223</v>
       </c>
       <c r="S23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="K25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="L25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="M25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="N25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="O25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="P25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="R25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="S25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584462</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.91391253367074</v>
+        <v>85.71066562432537</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376223</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U32" t="n">
-        <v>84.28818384994941</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.422481774376195</v>
+        <v>1.422481774376223</v>
       </c>
       <c r="S35" t="n">
-        <v>87.91391253367036</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.422481774376223</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="K40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="L40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="M40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="N40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="O40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="P40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="S40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.422481774375323</v>
+        <v>1.422481774376223</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376251</v>
       </c>
       <c r="S44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="K46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="L46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="N46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="O46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="P46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="R46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="S46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
   </sheetData>
@@ -31990,34 +31990,34 @@
         <v>2.363188445135985</v>
       </c>
       <c r="H14" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I14" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J14" t="n">
         <v>200.5726652953605</v>
       </c>
       <c r="K14" t="n">
-        <v>300.6064321779668</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L14" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M14" t="n">
         <v>414.9552130669844</v>
       </c>
       <c r="N14" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O14" t="n">
         <v>398.1706671354061</v>
       </c>
       <c r="P14" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q14" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R14" t="n">
         <v>148.4466361667735</v>
@@ -32081,7 +32081,7 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M15" t="n">
         <v>320.3745035215293</v>
@@ -32090,7 +32090,7 @@
         <v>328.8538633256564</v>
       </c>
       <c r="O15" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P15" t="n">
         <v>241.4482453578042</v>
@@ -32099,16 +32099,16 @@
         <v>161.4017578412773</v>
       </c>
       <c r="R15" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S15" t="n">
-        <v>23.48599657977628</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T15" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,16 +32148,16 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H16" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I16" t="n">
         <v>31.87844360502991</v>
       </c>
       <c r="J16" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K16" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L16" t="n">
         <v>157.5997783303081</v>
@@ -32166,28 +32166,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N16" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O16" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P16" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R16" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S16" t="n">
         <v>18.47369298393056</v>
       </c>
       <c r="T16" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,34 +32227,34 @@
         <v>2.363188445135985</v>
       </c>
       <c r="H17" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I17" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J17" t="n">
         <v>200.5726652953605</v>
       </c>
       <c r="K17" t="n">
-        <v>300.6064321779668</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L17" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M17" t="n">
         <v>414.9552130669844</v>
       </c>
       <c r="N17" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O17" t="n">
         <v>398.1706671354061</v>
       </c>
       <c r="P17" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q17" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R17" t="n">
         <v>148.4466361667735</v>
@@ -32318,7 +32318,7 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L18" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M18" t="n">
         <v>320.3745035215293</v>
@@ -32327,7 +32327,7 @@
         <v>328.8538633256564</v>
       </c>
       <c r="O18" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P18" t="n">
         <v>241.4482453578042</v>
@@ -32336,16 +32336,16 @@
         <v>161.4017578412773</v>
       </c>
       <c r="R18" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S18" t="n">
-        <v>23.48599657977628</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T18" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,16 +32385,16 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H19" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I19" t="n">
         <v>31.87844360502991</v>
       </c>
       <c r="J19" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K19" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L19" t="n">
         <v>157.5997783303081</v>
@@ -32403,28 +32403,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N19" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O19" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P19" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R19" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S19" t="n">
         <v>18.47369298393056</v>
       </c>
       <c r="T19" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33649,34 +33649,34 @@
         <v>2.363188445135985</v>
       </c>
       <c r="H35" t="n">
-        <v>24.20200366374892</v>
+        <v>24.20200366374891</v>
       </c>
       <c r="I35" t="n">
-        <v>91.10682253110518</v>
+        <v>91.10682253110515</v>
       </c>
       <c r="J35" t="n">
         <v>200.5726652953605</v>
       </c>
       <c r="K35" t="n">
-        <v>300.6064321779669</v>
+        <v>300.6064321779668</v>
       </c>
       <c r="L35" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557973</v>
       </c>
       <c r="M35" t="n">
         <v>414.9552130669844</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6696222367271</v>
+        <v>421.669622236727</v>
       </c>
       <c r="O35" t="n">
         <v>398.1706671354061</v>
       </c>
       <c r="P35" t="n">
-        <v>339.8294523961114</v>
+        <v>339.8294523961113</v>
       </c>
       <c r="Q35" t="n">
-        <v>255.1977662046789</v>
+        <v>255.1977662046788</v>
       </c>
       <c r="R35" t="n">
         <v>148.4466361667735</v>
@@ -33740,7 +33740,7 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L36" t="n">
-        <v>274.5393767843745</v>
+        <v>274.5393767843744</v>
       </c>
       <c r="M36" t="n">
         <v>320.3745035215293</v>
@@ -33749,7 +33749,7 @@
         <v>328.8538633256564</v>
       </c>
       <c r="O36" t="n">
-        <v>300.8370381258855</v>
+        <v>300.8370381258854</v>
       </c>
       <c r="P36" t="n">
         <v>241.4482453578042</v>
@@ -33758,16 +33758,16 @@
         <v>161.4017578412773</v>
       </c>
       <c r="R36" t="n">
-        <v>78.50478573395831</v>
+        <v>78.5047857339583</v>
       </c>
       <c r="S36" t="n">
-        <v>23.48599657977629</v>
+        <v>23.48599657977628</v>
       </c>
       <c r="T36" t="n">
-        <v>5.096488986260782</v>
+        <v>5.096488986260781</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08318534798031751</v>
+        <v>0.0831853479803175</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,16 +33807,16 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H37" t="n">
-        <v>9.424763556747058</v>
+        <v>9.424763556747056</v>
       </c>
       <c r="I37" t="n">
         <v>31.87844360502991</v>
       </c>
       <c r="J37" t="n">
-        <v>74.94518014398959</v>
+        <v>74.94518014398957</v>
       </c>
       <c r="K37" t="n">
-        <v>123.1579532262038</v>
+        <v>123.1579532262037</v>
       </c>
       <c r="L37" t="n">
         <v>157.5997783303081</v>
@@ -33825,28 +33825,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N37" t="n">
-        <v>162.2157923831526</v>
+        <v>162.2157923831525</v>
       </c>
       <c r="O37" t="n">
-        <v>149.8325396526618</v>
+        <v>149.8325396526617</v>
       </c>
       <c r="P37" t="n">
         <v>128.2076220439291</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.76431198486411</v>
+        <v>88.76431198486409</v>
       </c>
       <c r="R37" t="n">
-        <v>47.66347704669827</v>
+        <v>47.66347704669825</v>
       </c>
       <c r="S37" t="n">
         <v>18.47369298393056</v>
       </c>
       <c r="T37" t="n">
-        <v>4.529283099868214</v>
+        <v>4.529283099868213</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05782063531746664</v>
+        <v>0.05782063531746662</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>24.20200366374891</v>
       </c>
       <c r="I44" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110514</v>
       </c>
       <c r="J44" t="n">
         <v>200.5726652953605</v>
@@ -34375,25 +34375,25 @@
         <v>372.9288605557973</v>
       </c>
       <c r="M44" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669843</v>
       </c>
       <c r="N44" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367269</v>
       </c>
       <c r="O44" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354059</v>
       </c>
       <c r="P44" t="n">
         <v>339.8294523961113</v>
       </c>
       <c r="Q44" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046787</v>
       </c>
       <c r="R44" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667734</v>
       </c>
       <c r="S44" t="n">
-        <v>53.85115669353632</v>
+        <v>53.8511566935363</v>
       </c>
       <c r="T44" t="n">
         <v>10.34485741858278</v>
@@ -34436,40 +34436,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300825</v>
       </c>
       <c r="H45" t="n">
-        <v>12.21160908351061</v>
+        <v>12.2116090835106</v>
       </c>
       <c r="I45" t="n">
-        <v>43.53366544303282</v>
+        <v>43.5336654430328</v>
       </c>
       <c r="J45" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896012</v>
       </c>
       <c r="K45" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727565</v>
       </c>
       <c r="L45" t="n">
         <v>274.5393767843744</v>
       </c>
       <c r="M45" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215292</v>
       </c>
       <c r="N45" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256563</v>
       </c>
       <c r="O45" t="n">
         <v>300.8370381258854</v>
       </c>
       <c r="P45" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578041</v>
       </c>
       <c r="Q45" t="n">
         <v>161.4017578412773</v>
       </c>
       <c r="R45" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395829</v>
       </c>
       <c r="S45" t="n">
         <v>23.48599657977628</v>
@@ -34478,7 +34478,7 @@
         <v>5.096488986260781</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031749</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,22 +34518,22 @@
         <v>1.06004498082022</v>
       </c>
       <c r="H46" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747054</v>
       </c>
       <c r="I46" t="n">
-        <v>31.87844360502991</v>
+        <v>31.8784436050299</v>
       </c>
       <c r="J46" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398956</v>
       </c>
       <c r="K46" t="n">
         <v>123.1579532262037</v>
       </c>
       <c r="L46" t="n">
-        <v>157.5997783303081</v>
+        <v>157.599778330308</v>
       </c>
       <c r="M46" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298459</v>
       </c>
       <c r="N46" t="n">
         <v>162.2157923831525</v>
@@ -34545,16 +34545,16 @@
         <v>128.2076220439291</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486407</v>
       </c>
       <c r="R46" t="n">
         <v>47.66347704669825</v>
       </c>
       <c r="S46" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393055</v>
       </c>
       <c r="T46" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868212</v>
       </c>
       <c r="U46" t="n">
         <v>0.05782063531746662</v>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>143.5786972789634</v>
+        <v>66.3342247983976</v>
       </c>
       <c r="L12" t="n">
         <v>506.8253423079595</v>
@@ -35498,13 +35498,13 @@
         <v>643.9455333495109</v>
       </c>
       <c r="N12" t="n">
-        <v>197.5121512423231</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O12" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P12" t="n">
-        <v>425.9366065834111</v>
+        <v>142.5518187837667</v>
       </c>
       <c r="Q12" t="n">
         <v>21.41998375525583</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591738</v>
+        <v>2.005775453591724</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265958</v>
@@ -35647,7 +35647,7 @@
         <v>188.623375940748</v>
       </c>
       <c r="K14" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L14" t="n">
         <v>554.8236601362605</v>
@@ -35662,10 +35662,10 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P14" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123258</v>
       </c>
       <c r="Q14" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>330.7994618109761</v>
+        <v>66.3342247983976</v>
       </c>
       <c r="L15" t="n">
-        <v>214.6030935098874</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M15" t="n">
-        <v>178.240469599511</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N15" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O15" t="n">
-        <v>552.1031129581705</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P15" t="n">
-        <v>425.936606583411</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q15" t="n">
-        <v>231.4972714911049</v>
+        <v>56.49796459554847</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>226.7677401886561</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929763</v>
+        <v>194.8374429929764</v>
       </c>
       <c r="P16" t="n">
         <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944463</v>
+        <v>23.02204415944464</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>188.623375940748</v>
       </c>
       <c r="K17" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L17" t="n">
         <v>554.8236601362605</v>
@@ -35899,10 +35899,10 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>262.2918113423069</v>
+        <v>66.3342247983976</v>
       </c>
       <c r="L18" t="n">
-        <v>506.8253423079594</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M18" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N18" t="n">
-        <v>197.5121512423231</v>
+        <v>501.8552186903203</v>
       </c>
       <c r="O18" t="n">
-        <v>552.1031129581705</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P18" t="n">
-        <v>425.936606583411</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.4199837552558</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316139</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36060,7 +36060,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901431</v>
+        <v>84.4135385190143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>404.661993704151</v>
       </c>
       <c r="L20" t="n">
-        <v>554.8236601362611</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M20" t="n">
         <v>634.1225133325441</v>
@@ -36443,16 +36443,16 @@
         <v>506.8253423079594</v>
       </c>
       <c r="M24" t="n">
-        <v>643.9455333495109</v>
+        <v>246.6474810816493</v>
       </c>
       <c r="N24" t="n">
         <v>197.5121512423231</v>
       </c>
       <c r="O24" t="n">
-        <v>473.2678293302459</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P24" t="n">
-        <v>107.4738379434739</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q24" t="n">
         <v>231.4972714911049</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.3972698131614</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36531,10 +36531,10 @@
         <v>256.228937352546</v>
       </c>
       <c r="P25" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901431</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>188.6233759407485</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K26" t="n">
         <v>404.661993704151</v>
@@ -36613,7 +36613,7 @@
         <v>430.3951648123244</v>
       </c>
       <c r="Q26" t="n">
-        <v>245.207066990134</v>
+        <v>245.207066990135</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.7131140633434</v>
+        <v>39.87783043541881</v>
       </c>
       <c r="K27" t="n">
-        <v>143.462149142957</v>
+        <v>330.7994618109761</v>
       </c>
       <c r="L27" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M27" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N27" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O27" t="n">
         <v>552.1031129581705</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316142</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
@@ -36768,10 +36768,10 @@
         <v>256.228937352546</v>
       </c>
       <c r="P28" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901432</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.7131140633434</v>
+        <v>35.07798084029283</v>
       </c>
       <c r="K30" t="n">
         <v>66.33422479839757</v>
@@ -36920,7 +36920,7 @@
         <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
-        <v>383.1421046269771</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O30" t="n">
         <v>552.1031129581705</v>
@@ -36929,7 +36929,7 @@
         <v>107.4738379434739</v>
       </c>
       <c r="Q30" t="n">
-        <v>231.4972714911049</v>
+        <v>21.4199837552558</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.39726981316142</v>
+        <v>63.39726981316134</v>
       </c>
       <c r="K31" t="n">
-        <v>182.6997311861655</v>
+        <v>182.6997311861654</v>
       </c>
       <c r="L31" t="n">
         <v>267.0010733764688</v>
       </c>
       <c r="M31" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N31" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O31" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525459</v>
       </c>
       <c r="P31" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901432</v>
+        <v>84.41353851901425</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>330.7994618109761</v>
       </c>
       <c r="L33" t="n">
-        <v>135.9849970045003</v>
+        <v>342.5100036132105</v>
       </c>
       <c r="M33" t="n">
         <v>643.9455333495109</v>
@@ -37163,7 +37163,7 @@
         <v>158.240793681441</v>
       </c>
       <c r="P33" t="n">
-        <v>313.9988445521845</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q33" t="n">
         <v>231.4972714911049</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>188.623375940748</v>
+        <v>95.22510921552501</v>
       </c>
       <c r="K35" t="n">
-        <v>404.6619937041511</v>
+        <v>404.661993704151</v>
       </c>
       <c r="L35" t="n">
-        <v>461.4253934110374</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M35" t="n">
         <v>634.1225133325441</v>
@@ -37321,10 +37321,10 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P35" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123244</v>
       </c>
       <c r="Q35" t="n">
-        <v>245.2070669901341</v>
+        <v>245.207066990134</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>118.7131140633434</v>
       </c>
       <c r="K36" t="n">
-        <v>330.7994618109762</v>
+        <v>330.7994618109761</v>
       </c>
       <c r="L36" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M36" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>676.8545255858767</v>
+        <v>328.7541553502476</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P36" t="n">
-        <v>313.9988445521845</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q36" t="n">
-        <v>231.4972714911049</v>
+        <v>21.4199837552558</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.49991256098755</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K37" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L37" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M37" t="n">
         <v>293.6646586253573</v>
@@ -37476,13 +37476,13 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O37" t="n">
-        <v>262.3315801003722</v>
+        <v>262.3315801003721</v>
       </c>
       <c r="P37" t="n">
-        <v>213.4000938424934</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684046</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>634.1225133325441</v>
       </c>
       <c r="N38" t="n">
-        <v>536.2052163268975</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O38" t="n">
         <v>548.8726369764647</v>
       </c>
       <c r="P38" t="n">
-        <v>430.3951648123244</v>
+        <v>336.9968980871014</v>
       </c>
       <c r="Q38" t="n">
         <v>245.207066990134</v>
@@ -37622,19 +37622,19 @@
         <v>118.7131140633434</v>
       </c>
       <c r="K39" t="n">
-        <v>330.7994618109761</v>
+        <v>218.8616997797493</v>
       </c>
       <c r="L39" t="n">
-        <v>506.8253423079594</v>
+        <v>135.9849970045003</v>
       </c>
       <c r="M39" t="n">
-        <v>246.6474810816493</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N39" t="n">
-        <v>197.5121512423231</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O39" t="n">
-        <v>552.1031129581705</v>
+        <v>158.240793681441</v>
       </c>
       <c r="P39" t="n">
         <v>425.936606583411</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
@@ -37713,13 +37713,13 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O40" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P40" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>629.6034830521203</v>
       </c>
       <c r="O41" t="n">
-        <v>455.4743702512423</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P41" t="n">
-        <v>430.3951648123244</v>
+        <v>336.9968980871014</v>
       </c>
       <c r="Q41" t="n">
         <v>245.207066990134</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.7131140633434</v>
+        <v>35.0779808402929</v>
       </c>
       <c r="K42" t="n">
-        <v>330.7994618109761</v>
+        <v>66.33422479839757</v>
       </c>
       <c r="L42" t="n">
         <v>506.8253423079594</v>
       </c>
       <c r="M42" t="n">
-        <v>640.5098003583787</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N42" t="n">
-        <v>197.5121512423231</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O42" t="n">
-        <v>158.240793681441</v>
+        <v>552.1031129581705</v>
       </c>
       <c r="P42" t="n">
-        <v>425.936606583411</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q42" t="n">
-        <v>231.4972714911049</v>
+        <v>21.4199837552558</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098751</v>
+        <v>69.4999125609875</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339916</v>
@@ -37944,7 +37944,7 @@
         <v>273.1037161242949</v>
       </c>
       <c r="M43" t="n">
-        <v>293.6646586253573</v>
+        <v>293.6646586253572</v>
       </c>
       <c r="N43" t="n">
         <v>294.2618772960518</v>
@@ -37956,7 +37956,7 @@
         <v>213.4000938424933</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684042</v>
+        <v>90.51618126684041</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>404.661993704151</v>
       </c>
       <c r="L44" t="n">
-        <v>461.4253934110384</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M44" t="n">
-        <v>634.1225133325441</v>
+        <v>540.7242466073213</v>
       </c>
       <c r="N44" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521202</v>
       </c>
       <c r="O44" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764646</v>
       </c>
       <c r="P44" t="n">
         <v>430.3951648123244</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901339</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>330.7994618109761</v>
       </c>
       <c r="L45" t="n">
-        <v>135.9849970045003</v>
+        <v>142.7603490366172</v>
       </c>
       <c r="M45" t="n">
-        <v>643.9455333495109</v>
+        <v>643.9455333495108</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858767</v>
+        <v>676.8545255858766</v>
       </c>
       <c r="O45" t="n">
-        <v>158.240793681441</v>
+        <v>158.2407936814409</v>
       </c>
       <c r="P45" t="n">
-        <v>313.9988445521845</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q45" t="n">
         <v>231.4972714911049</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.4999125609875</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K46" t="n">
         <v>188.8023739339916</v>
